--- a/Application record.xlsx
+++ b/Application record.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elvis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alien\Documents\GitHub\career_preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C3F863FE-AA18-43D3-8800-3D2A74E13B3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>Company</t>
   </si>
@@ -261,13 +262,22 @@
   </si>
   <si>
     <t>finish the assessment</t>
+  </si>
+  <si>
+    <t>2019 Data Analyst</t>
+  </si>
+  <si>
+    <t>WAIT</t>
+  </si>
+  <si>
+    <t>Graduate jobs in Forensic Technology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,6 +364,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -370,6 +383,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -637,23 +653,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.796875" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.796875" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,17 +686,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -691,7 +707,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>12</v>
@@ -700,7 +716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -711,7 +727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -722,394 +738,415 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9"/>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
         <v>43393</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9"/>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D23" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7">
+      <c r="E23" s="5"/>
+      <c r="F23" s="7">
         <v>43398</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7">
-        <v>43388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="5"/>
+      <c r="F24" s="7">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="8"/>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>55</v>
       </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
         <v>56</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
         <v>38</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D45" t="s">
         <v>63</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="7">
-        <v>43382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>74</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="7">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="7">
         <v>43393</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
         <v>66</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D50" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7">
+      <c r="E50" s="6"/>
+      <c r="F50" s="7">
         <v>43384</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>67</v>
       </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
         <v>68</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D51" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="7">
+      <c r="E51" s="5"/>
+      <c r="F51" s="7">
         <v>43386</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
         <v>69</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
         <v>76</v>
       </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E54" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Application record.xlsx
+++ b/Application record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alien\Documents\GitHub\career_preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C3F863FE-AA18-43D3-8800-3D2A74E13B3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C9D8A8EA-7A61-4435-BF70-A7F51799F0FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>Company</t>
   </si>
@@ -249,9 +249,6 @@
     <t>finishied technical assessment</t>
   </si>
   <si>
-    <t>finish the code test</t>
-  </si>
-  <si>
     <t>Global Quantitative Stratrgies Analyst Program</t>
   </si>
   <si>
@@ -271,6 +268,21 @@
   </si>
   <si>
     <t>Graduate jobs in Forensic Technology</t>
+  </si>
+  <si>
+    <t>consider other candidate</t>
+  </si>
+  <si>
+    <t>First Derivative Plc</t>
+  </si>
+  <si>
+    <t>Data Science Graudate Program 2018</t>
+  </si>
+  <si>
+    <t>Aberdeen asset management</t>
+  </si>
+  <si>
+    <t>Trainee Quantitative Analyst</t>
   </si>
 </sst>
 </file>
@@ -654,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -746,10 +758,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -818,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -842,7 +854,7 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="7">
@@ -1066,9 +1078,9 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="E49" s="6"/>
       <c r="F49" s="7">
         <v>43393</v>
       </c>
@@ -1125,26 +1137,67 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
         <v>76</v>
       </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>77</v>
-      </c>
       <c r="E54" s="5"/>
     </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="7">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="7">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="9"/>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="7">
+        <v>43403</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
